--- a/result3.xlsx
+++ b/result3.xlsx
@@ -7,31 +7,111 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="drops" sheetId="1" r:id="rId1"/>
+    <sheet name="per_missile" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>fuse</t>
-  </si>
-  <si>
-    <t>total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>uav</t>
+  </si>
+  <si>
+    <t>drop_idx</t>
+  </si>
+  <si>
+    <t>t_release</t>
+  </si>
+  <si>
+    <t>fuse_delay</t>
+  </si>
+  <si>
+    <t>t_explosion</t>
+  </si>
+  <si>
+    <t>explosion_x</t>
+  </si>
+  <si>
+    <t>explosion_y</t>
+  </si>
+  <si>
+    <t>explosion_z</t>
+  </si>
+  <si>
+    <t>intervals_M1</t>
+  </si>
+  <si>
+    <t>intervals_M2</t>
+  </si>
+  <si>
+    <t>intervals_M3</t>
+  </si>
+  <si>
+    <t>FY1</t>
+  </si>
+  <si>
+    <t>FY2</t>
+  </si>
+  <si>
+    <t>FY3</t>
+  </si>
+  <si>
+    <t>FY5</t>
+  </si>
+  <si>
+    <t>4.999880-7.970938</t>
+  </si>
+  <si>
+    <t>25.681245-29.001094</t>
+  </si>
+  <si>
+    <t>26.917176-29.934919</t>
+  </si>
+  <si>
+    <t>29.743845-32.612435</t>
+  </si>
+  <si>
+    <t>45.206855-47.249995</t>
+  </si>
+  <si>
+    <t>18.480015-21.943822</t>
+  </si>
+  <si>
+    <t>13.715379-16.600439</t>
+  </si>
+  <si>
+    <t>43.557475-44.397469</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>total_shield</t>
+  </si>
+  <si>
+    <t>intervals</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>4.999880-7.970938;18.480015-21.943822;25.681245-32.612435;45.206855-47.249995</t>
+  </si>
+  <si>
+    <t>13.715379-16.600439;43.557475-44.397469</t>
+  </si>
+  <si>
+    <t>total_sum</t>
   </si>
 </sst>
 </file>
@@ -389,13 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,61 +488,335 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>2.525641025641026</v>
+      </c>
+      <c r="E2">
+        <v>2.525641025641026</v>
+      </c>
+      <c r="F2">
+        <v>17623.20512820513</v>
+      </c>
+      <c r="G2">
+        <v>2.165112738492564E-14</v>
+      </c>
+      <c r="H2">
+        <v>1768.743573307035</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E3">
+        <v>21.61538461538461</v>
+      </c>
+      <c r="F3">
+        <v>9295.440035596806</v>
+      </c>
+      <c r="G3">
+        <v>42.44245074505102</v>
+      </c>
+      <c r="H3">
+        <v>946.9674556213017</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6.576923076923077</v>
+      </c>
+      <c r="E4">
+        <v>13.57692307692308</v>
+      </c>
+      <c r="F4">
+        <v>11246.77088651314</v>
+      </c>
+      <c r="G4">
+        <v>-345.1560306273052</v>
+      </c>
+      <c r="H4">
+        <v>1188.04600591716</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2.800000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7.589743589743589</v>
+      </c>
+      <c r="E5">
+        <v>13.58974358974359</v>
+      </c>
+      <c r="F5">
+        <v>10694.08564990458</v>
+      </c>
+      <c r="G5">
+        <v>16.40400601172507</v>
+      </c>
+      <c r="H5">
+        <v>1117.739381985536</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>4.551282051282051</v>
+      </c>
+      <c r="E6">
+        <v>26.55128205128205</v>
+      </c>
+      <c r="F6">
+        <v>5814.403517742308</v>
+      </c>
+      <c r="G6">
+        <v>92.08454294342516</v>
+      </c>
+      <c r="H6">
+        <v>598.5005752794215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>8.602564102564102</v>
+      </c>
+      <c r="E7">
+        <v>36.6025641025641</v>
+      </c>
+      <c r="F7">
+        <v>3064.038780970433</v>
+      </c>
+      <c r="G7">
+        <v>100.9009192002616</v>
+      </c>
+      <c r="H7">
+        <v>337.3798652202498</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>5.564102564102564</v>
+      </c>
+      <c r="E8">
+        <v>26.56410256410256</v>
+      </c>
+      <c r="F8">
+        <v>4767.446294799195</v>
+      </c>
+      <c r="G8">
+        <v>-156.4963602959516</v>
+      </c>
+      <c r="H8">
+        <v>548.2997370151217</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="E9">
+        <v>15.53846153846154</v>
+      </c>
+      <c r="F9">
+        <v>12211.42206660166</v>
+      </c>
+      <c r="G9">
+        <v>27.42276494303962</v>
+      </c>
+      <c r="H9">
+        <v>1238.648520710059</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>15.40919484352478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2.800000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>3.725054143667148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>19.13424898719193</v>
       </c>
     </row>
   </sheetData>
